--- a/GameData/WildBlueIndustries/Snacks/Docs/Snacks Trip Planner.xlsx
+++ b/GameData/WildBlueIndustries/Snacks/Docs/Snacks Trip Planner.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KSPDev\GameData\Snacks\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KSPDev\GameData\WildBlueIndustries\Snacks\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E6B6F-97B2-403B-B187-BE67B540F2C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22350" windowHeight="13470"/>
+    <workbookView xWindow="5220" yWindow="2220" windowWidth="21600" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timewarp Calcs" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>Water</t>
   </si>
@@ -213,12 +220,90 @@
   </si>
   <si>
     <t>Recycled/sec (single, Water &amp; Fertilizer)</t>
+  </si>
+  <si>
+    <t>Soil Recycler</t>
+  </si>
+  <si>
+    <t>SpecialistEfficiencyBase</t>
+  </si>
+  <si>
+    <t>SpecialistEfficiencyFactor</t>
+  </si>
+  <si>
+    <t>Experience Level</t>
+  </si>
+  <si>
+    <t>Crew Efficiency Bonus</t>
+  </si>
+  <si>
+    <t>Snacks Per Meal</t>
+  </si>
+  <si>
+    <t>Meals Per Day</t>
+  </si>
+  <si>
+    <t>Recycler Capacity</t>
+  </si>
+  <si>
+    <t>Soil Per Second</t>
+  </si>
+  <si>
+    <t>Electric Charge Per Second</t>
+  </si>
+  <si>
+    <t>Snacks Per Second</t>
+  </si>
+  <si>
+    <t>Timewarp</t>
+  </si>
+  <si>
+    <t>Outputs w/ Timewarp</t>
+  </si>
+  <si>
+    <t>E.C. Per Second</t>
+  </si>
+  <si>
+    <t>Inputs w/ Timewarp</t>
+  </si>
+  <si>
+    <t>Outputs w/Timewarp</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Timewarp Factor</t>
+  </si>
+  <si>
+    <t>Recycler Efficiency</t>
+  </si>
+  <si>
+    <t>Base Input Efficiency</t>
+  </si>
+  <si>
+    <t>Base Output Efficiency</t>
+  </si>
+  <si>
+    <t>Snacks Processor</t>
+  </si>
+  <si>
+    <t>Ore Per Sec</t>
+  </si>
+  <si>
+    <t>E.C. Per Sec</t>
+  </si>
+  <si>
+    <t>Snacks Per Sec</t>
+  </si>
+  <si>
+    <t>Production Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
@@ -260,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +388,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -316,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -350,6 +441,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +724,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5281E41-3B39-46C5-962A-2092523EC3BE}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="31">
+        <f xml:space="preserve"> 1 + (B2 + (1 + B4) * B3)</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="32">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="32">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="31">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <f>B6*B7*B10</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <f>B14 * (B8/100)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="D17">
+        <v>100000</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B11*(B14*B5)*B9</f>
+        <v>0.18334800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="7">
+        <f>B12*(B14*B5)*B9</f>
+        <v>11880.000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7">
+        <f>B13*(B15*B5)*B9</f>
+        <v>7.3339200000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <f>B25*B5*B9</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32">
+        <f>B26*B5*B9</f>
+        <v>9900.0000000000018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35">
+        <f>B27*B5*(B28/100)*B9</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
